--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1441,7 +1441,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionInicioDiagnosticoLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarDiagnosticoLE)
 </t>
   </si>
   <si>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,6 +453,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Encounter.extension:ConsecuenciaAtencionCodigo</t>
+  </si>
+  <si>
+    <t>ConsecuenciaAtencionCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConsecuenciaAtencionCodigo}
+</t>
+  </si>
+  <si>
+    <t>Código de la consecuencia de la atención</t>
+  </si>
+  <si>
+    <t>Consecuencia Atención Codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Encounter.extension:PertinenciaAtencionBox</t>
   </si>
   <si>
@@ -469,10 +489,6 @@
     <t>ExtBool Pertinencia Atencion Box</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Encounter.extension:MotivoNoPertinencia</t>
   </si>
   <si>
@@ -964,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t>Referencia al Paciente que se presentará a la Atención APS</t>
+    <t>Referencia al paciente que fue atendido en APS</t>
   </si>
   <si>
     <t>The patient or group present at the encounter.</t>
@@ -1099,7 +1115,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerRoleLE)
 </t>
   </si>
   <si>
@@ -1143,7 +1159,7 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>Fechas de comienzo y término del encuentro Atención APS. El formato queda consignado como YYYY-MM-DDTHH:MMZ</t>
+    <t>Fechas de comienzo y término del encuentro atención de especialidad. El formato queda consignado como YYYY-MM-DDTHH:MMZ</t>
   </si>
   <si>
     <t>The start and end time of the encounter.</t>
@@ -1177,7 +1193,7 @@
 </t>
   </si>
   <si>
-    <t>Fecha Comienzo del encuentro Atención APS</t>
+    <t>Fecha Comienzo del encuentro atención de especialidad</t>
   </si>
   <si>
     <t>The start of the period. The boundary is inclusive.</t>
@@ -1202,7 +1218,7 @@
     <t>Encounter.period.end</t>
   </si>
   <si>
-    <t>Fecha de término del encuentro Atención APS</t>
+    <t>Fecha de término del encuentro atención de especialidad</t>
   </si>
   <si>
     <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
@@ -1286,131 +1302,7 @@
 </t>
   </si>
   <si>
-    <t>Motivo del encuentro (como referencia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice creado para almacenar diferentes tipos de reasonReference</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE</t>
-  </si>
-  <si>
-    <t>ObservationAtenderLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationAtenderLE)
-</t>
-  </si>
-  <si>
-    <t>Referencia a la Observation hecha en la atención</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.reference</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.type</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference:ObservationAtenderLE.display</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
+    <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1441,7 +1333,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarDiagnosticoLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionDiagnosticoLE)
 </t>
   </si>
   <si>
@@ -2159,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2168,9 +2060,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2196,7 +2088,7 @@
     <col min="26" max="26" width="76.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="61.2734375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3250,7 +3142,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3364,7 +3256,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3468,43 +3360,41 @@
         <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3552,7 +3442,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3561,7 +3451,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -3570,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3581,42 +3471,46 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I13" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3664,7 +3558,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3676,27 +3570,27 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3704,28 +3598,28 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3776,50 +3670,50 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3831,7 +3725,7 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>173</v>
@@ -3839,9 +3733,7 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3878,37 +3770,37 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3926,26 +3818,26 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>178</v>
@@ -3954,11 +3846,9 @@
         <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3982,63 +3872,63 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4055,25 +3945,25 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4098,13 +3988,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4122,7 +4012,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4140,21 +4030,21 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4177,19 +4067,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4202,7 +4092,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -4214,13 +4104,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4238,7 +4128,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4256,21 +4146,21 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4278,13 +4168,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4293,18 +4183,20 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4316,7 +4208,7 @@
         <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>80</v>
@@ -4352,7 +4244,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4370,21 +4262,21 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4392,13 +4284,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4407,15 +4299,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4428,7 +4322,7 @@
         <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>80</v>
@@ -4464,7 +4358,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4482,21 +4376,21 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4519,17 +4413,15 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4578,7 +4470,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4596,21 +4488,21 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4618,31 +4510,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4653,7 +4545,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -4668,13 +4560,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4692,10 +4584,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -4707,24 +4599,24 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4732,31 +4624,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4767,7 +4659,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -4782,13 +4674,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4806,13 +4698,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4821,16 +4713,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -4849,7 +4741,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4861,15 +4753,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4918,25 +4812,25 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4947,21 +4841,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4973,7 +4867,7 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>173</v>
@@ -4981,9 +4875,7 @@
       <c r="M25" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5032,25 +4924,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5061,14 +4953,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5081,26 +4973,24 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5148,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5166,7 +5056,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5184,35 +5074,39 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5236,13 +5130,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5260,25 +5154,25 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5289,10 +5183,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5315,13 +5209,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5348,13 +5242,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5372,7 +5266,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5390,7 +5284,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5401,10 +5295,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5424,16 +5318,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5460,11 +5354,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5482,7 +5378,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5500,21 +5396,21 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5522,10 +5418,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5534,16 +5430,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5570,13 +5466,11 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5594,13 +5488,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5612,21 +5506,21 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5637,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5649,13 +5543,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5706,25 +5600,25 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5735,21 +5629,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5761,7 +5655,7 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>173</v>
@@ -5769,9 +5663,7 @@
       <c r="M32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5820,25 +5712,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5849,14 +5741,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5869,26 +5761,24 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5936,7 +5826,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5954,7 +5844,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5965,42 +5855,46 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6024,13 +5918,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6048,25 +5942,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6103,7 +5997,7 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>278</v>
@@ -6136,13 +6030,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6178,7 +6072,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6189,10 +6083,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6200,10 +6094,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6212,20 +6106,18 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6250,11 +6142,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6272,13 +6166,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6287,24 +6181,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6318,7 +6212,7 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6327,15 +6221,17 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6360,13 +6256,11 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6384,13 +6278,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6399,24 +6293,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6436,16 +6330,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6472,7 +6366,7 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>297</v>
@@ -6496,7 +6390,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6511,57 +6405,55 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6586,13 +6478,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6610,7 +6502,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6625,38 +6517,38 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6665,15 +6557,17 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6722,13 +6616,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6737,53 +6631,53 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6834,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6849,47 +6743,47 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>325</v>
+        <v>176</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>327</v>
@@ -6946,7 +6840,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6970,15 +6864,15 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6989,7 +6883,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6998,16 +6892,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7058,50 +6952,50 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7113,7 +7007,7 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>173</v>
@@ -7121,9 +7015,7 @@
       <c r="M44" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7172,25 +7064,25 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7201,14 +7093,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7221,26 +7113,24 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7288,7 +7178,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7306,7 +7196,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7317,14 +7207,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7337,24 +7227,26 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7378,13 +7270,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7402,7 +7294,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7414,27 +7306,27 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7445,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7454,18 +7346,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7490,13 +7384,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7514,13 +7408,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7529,7 +7423,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>346</v>
@@ -7566,16 +7460,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7641,24 +7535,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7669,7 +7563,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7681,13 +7575,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7738,13 +7632,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7753,24 +7647,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7781,7 +7675,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7790,10 +7684,10 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>363</v>
@@ -7801,9 +7695,7 @@
       <c r="M50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7852,13 +7744,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7867,24 +7759,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7907,15 +7799,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7964,7 +7858,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7976,38 +7870,38 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8019,7 +7913,7 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>173</v>
@@ -8027,9 +7921,7 @@
       <c r="M52" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8066,37 +7958,37 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8107,42 +7999,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8180,51 +8072,51 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>379</v>
+        <v>176</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8232,7 +8124,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8247,24 +8139,22 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8308,7 +8198,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8317,7 +8207,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8326,21 +8216,21 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8354,31 +8244,33 @@
         <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8422,7 +8314,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8431,41 +8323,41 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8474,19 +8366,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8512,13 +8404,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8536,13 +8428,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8551,38 +8443,38 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -8591,16 +8483,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8626,31 +8518,31 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8665,16 +8557,16 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -8682,13 +8574,11 @@
         <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8698,7 +8588,7 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -8707,16 +8597,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8766,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8781,24 +8671,24 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8806,28 +8696,28 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>169</v>
+        <v>417</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8878,25 +8768,25 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8907,21 +8797,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8933,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>173</v>
@@ -8941,9 +8831,7 @@
       <c r="M60" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8980,37 +8868,37 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF60" t="s" s="2">
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9024,18 +8912,18 @@
         <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9044,19 +8932,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>178</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
+        <v>179</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>424</v>
+        <v>160</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9106,25 +8994,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9135,44 +9023,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
+        <v>255</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>430</v>
+        <v>256</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9181,7 +9071,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9196,13 +9086,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9220,19 +9110,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>257</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9249,24 +9139,24 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -9275,16 +9165,16 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9334,10 +9224,10 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>88</v>
@@ -9349,24 +9239,24 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9386,20 +9276,18 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9424,13 +9312,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9448,7 +9336,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9466,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9477,10 +9365,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9488,28 +9376,28 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>242</v>
+        <v>436</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9560,13 +9448,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9578,7 +9466,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9589,10 +9477,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9603,7 +9491,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9615,15 +9503,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>168</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9672,25 +9562,25 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>171</v>
+        <v>445</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9701,21 +9591,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9727,16 +9617,16 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>174</v>
+        <v>448</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>155</v>
+        <v>449</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9786,25 +9676,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>176</v>
+        <v>446</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9815,46 +9705,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9902,25 +9788,25 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9931,42 +9817,42 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>457</v>
+        <v>157</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
+        <v>179</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10016,71 +9902,75 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>181</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>462</v>
+        <v>176</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10104,13 +9994,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10128,25 +10018,25 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>464</v>
+        <v>257</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10157,10 +10047,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10183,13 +10073,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>164</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10240,7 +10130,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10258,21 +10148,21 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>473</v>
+        <v>168</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10283,7 +10173,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10295,17 +10185,15 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10354,13 +10242,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10372,7 +10260,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10383,10 +10271,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10409,17 +10297,15 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10444,13 +10330,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10468,7 +10354,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10486,21 +10372,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10523,13 +10409,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>168</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10556,13 +10442,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -10580,7 +10466,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10592,31 +10478,31 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10635,18 +10521,20 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>173</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>174</v>
+        <v>478</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10670,13 +10558,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10694,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10706,31 +10594,31 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>171</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10743,26 +10631,22 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>250</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10786,13 +10670,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10810,7 +10694,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>252</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10822,27 +10706,27 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>131</v>
+        <v>490</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10853,7 +10737,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10865,13 +10749,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10898,13 +10782,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10922,13 +10806,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
@@ -10940,21 +10824,21 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>163</v>
+        <v>497</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10977,13 +10861,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11034,7 +10918,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11052,21 +10936,21 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11089,13 +10973,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11122,13 +11006,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11146,7 +11030,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11164,21 +11048,21 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11189,7 +11073,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11201,15 +11085,17 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11234,13 +11120,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11258,13 +11144,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -11276,21 +11162,21 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>171</v>
+        <v>515</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11301,7 +11187,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11313,20 +11199,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>173</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11350,13 +11232,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11374,43 +11256,43 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>510</v>
+        <v>175</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11429,15 +11311,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>520</v>
+        <v>178</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11462,13 +11346,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11486,7 +11370,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>519</v>
+        <v>181</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11498,31 +11382,31 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>524</v>
+        <v>176</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11535,22 +11419,26 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>255</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11574,13 +11462,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11598,7 +11486,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>257</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11610,27 +11498,27 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>531</v>
+        <v>131</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11638,7 +11526,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
@@ -11653,13 +11541,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11710,10 +11598,10 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>88</v>
@@ -11725,24 +11613,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>536</v>
+        <v>358</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11765,15 +11653,17 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -11798,13 +11688,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -11822,7 +11712,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11840,21 +11730,21 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11865,7 +11755,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -11877,16 +11767,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11912,13 +11802,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11936,13 +11826,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
@@ -11954,7 +11844,7 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -11965,10 +11855,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11991,13 +11881,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>168</v>
+        <v>540</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>169</v>
+        <v>541</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12048,7 +11938,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>170</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12060,13 +11950,13 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12077,21 +11967,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12103,17 +11993,15 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>173</v>
+        <v>543</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12162,75 +12050,73 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>176</v>
+        <v>542</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>171</v>
+        <v>545</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>250</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>251</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12278,713 +12164,35 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>252</v>
+        <v>547</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>131</v>
+        <v>553</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN95" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12994,7 +12202,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>ConsecuenciaAtencionCodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConsecuenciaAtencionCodigo}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionConsecuenciaAtencionCodigo}
 </t>
   </si>
   <si>
@@ -2070,7 +2070,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.76953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,7 +479,7 @@
     <t>PertinenciaAtencionBox</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolPertinenciaAtencionBox}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionPertinenciaAtencionBox}
 </t>
   </si>
   <si>
@@ -495,14 +495,14 @@
     <t>MotivoNoPertinencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtStringMotivoNoPertinencia}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionMotivoNoPertinencia}
 </t>
   </si>
   <si>
     <t>Indicar Motivo de la No Pertinecia en texto libre (PertinenciaAtencionBox = false)</t>
   </si>
   <si>
-    <t>ExtString MotivoNoPertinencia</t>
+    <t>Extensión que declara un porque de la no pertinencia</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7784,13 +7784,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
